--- a/modules/Red Line Info.xlsx
+++ b/modules/Red Line Info.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/52e6f4f7f86bcef2/Desktop/School/1140/1140/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/52e6f4f7f86bcef2/Desktop/School/1140/1140/modules/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{BE1843E8-BAEF-4C94-81BE-558F42D416FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90E4B333-2C6C-4C92-8A54-F1AD4E5DFB7C}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{BE1843E8-BAEF-4C94-81BE-558F42D416FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE2E7295-C8E5-43CD-A2BE-76D687FD730A}"/>
   <bookViews>
-    <workbookView xWindow="-30" yWindow="1780" windowWidth="28800" windowHeight="15460" xr2:uid="{74BABC91-B30C-4EA1-9E18-CB507E7797A1}"/>
+    <workbookView xWindow="11390" yWindow="2360" windowWidth="28800" windowHeight="15460" xr2:uid="{74BABC91-B30C-4EA1-9E18-CB507E7797A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="36">
   <si>
     <t>Section</t>
   </si>
@@ -101,9 +101,6 @@
     <t>T</t>
   </si>
   <si>
-    <t>Speed Limit (Km/Hr)</t>
-  </si>
-  <si>
     <t>Infrastructure</t>
   </si>
   <si>
@@ -113,9 +110,6 @@
     <t>STATION: SHADYSIDE</t>
   </si>
   <si>
-    <t>SWITCH TO/FROM YARD (75-yard)</t>
-  </si>
-  <si>
     <t>STATION: HERRON AVE</t>
   </si>
   <si>
@@ -125,40 +119,31 @@
     <t>STATION; PENN STATION; UNDERGROUND</t>
   </si>
   <si>
-    <t>SWITCH (27-28; 27-76); UNDERGROUND</t>
-  </si>
-  <si>
-    <t>SWITCH (32-33; 33-72); UNDERGROUND</t>
-  </si>
-  <si>
-    <t>STATION;     STEEL PLAZA; UNDERGROUND</t>
-  </si>
-  <si>
-    <t>SWITCH (38-39; 38-71); UNDERGROUND</t>
-  </si>
-  <si>
-    <t>SWITCH (43-44; 44-67); UNDERGROUND</t>
-  </si>
-  <si>
     <t>STATION; FIRST AVE; UNDERGROUND</t>
   </si>
   <si>
-    <t>RAILWAY CROSSING</t>
-  </si>
-  <si>
     <t>STATION; STATION SQUARE</t>
   </si>
   <si>
-    <t>SWITCH (52-53; 52-66)</t>
-  </si>
-  <si>
     <t>STATION; SOUTH HILLS JUNCTION</t>
   </si>
   <si>
-    <t>SW_BEACON</t>
-  </si>
-  <si>
     <t>SWITCH TO/FROM YARD</t>
+  </si>
+  <si>
+    <t>SWITCH; UNDERGROUND</t>
+  </si>
+  <si>
+    <t>STATION; STEEL PLAZA; UNDERGROUND</t>
+  </si>
+  <si>
+    <t>SWITCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SWITCH TO/FROM YARD </t>
+  </si>
+  <si>
+    <t>Speed Limit (m/s)</t>
   </si>
 </sst>
 </file>
@@ -241,6 +226,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -540,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4104CD2-E043-4597-AF7D-F6AD80AEEABB}">
-  <dimension ref="A1:F223"/>
+  <dimension ref="A1:H223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -556,7 +545,7 @@
     <col min="6" max="6" width="3.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -567,13 +556,17 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H1" t="e">
+        <f>D1*0.27777778</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>20</v>
       </c>
@@ -584,14 +577,16 @@
         <v>50</v>
       </c>
       <c r="D2" s="3">
-        <v>40</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>39</v>
-      </c>
+        <v>11.1111112</v>
+      </c>
+      <c r="E2" s="5"/>
       <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H2">
+        <f t="shared" ref="H2:H65" si="0">D2*0.27777778</f>
+        <v>3.0864198024691358</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -602,14 +597,18 @@
         <v>75</v>
       </c>
       <c r="D3" s="3">
-        <v>40</v>
+        <v>11.1111112</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H3">
+        <f t="shared" si="0"/>
+        <v>3.0864198024691358</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -620,11 +619,15 @@
         <v>75</v>
       </c>
       <c r="D4" s="3">
-        <v>40</v>
+        <v>11.1111112</v>
       </c>
       <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>3.0864198024691358</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -635,13 +638,17 @@
         <v>75</v>
       </c>
       <c r="D5" s="3">
-        <v>40</v>
+        <v>11.1111112</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>3.0864198024691358</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -652,10 +659,14 @@
         <v>50</v>
       </c>
       <c r="D6" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <v>11.1111112</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>3.0864198024691358</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -666,11 +677,15 @@
         <v>50</v>
       </c>
       <c r="D7" s="3">
-        <v>40</v>
+        <v>11.1111112</v>
       </c>
       <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>3.0864198024691358</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
@@ -681,10 +696,14 @@
         <v>50</v>
       </c>
       <c r="D8" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+        <v>11.1111112</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>3.0864198024691358</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -695,10 +714,14 @@
         <v>50</v>
       </c>
       <c r="D9" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+        <v>11.1111112</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>3.0864198024691358</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>3</v>
       </c>
@@ -709,10 +732,14 @@
         <v>50</v>
       </c>
       <c r="D10" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+        <v>11.1111112</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>3.0864198024691358</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
@@ -723,10 +750,14 @@
         <v>50</v>
       </c>
       <c r="D11" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+        <v>11.1111112</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>3.0864198024691358</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
@@ -737,13 +768,17 @@
         <v>50</v>
       </c>
       <c r="D12" s="3">
-        <v>40</v>
+        <v>11.1111112</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>3.0864198024691358</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
@@ -754,10 +789,14 @@
         <v>200</v>
       </c>
       <c r="D13" s="3">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+        <v>15.277777899999998</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>4.2438272283950615</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
@@ -768,10 +807,14 @@
         <v>400</v>
       </c>
       <c r="D14" s="3">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+        <v>19.444444599999997</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>5.4012346543209864</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
@@ -782,10 +825,14 @@
         <v>400</v>
       </c>
       <c r="D15" s="3">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+        <v>19.444444599999997</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>5.4012346543209864</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
@@ -796,10 +843,14 @@
         <v>200</v>
       </c>
       <c r="D16" s="3">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+        <v>19.444444599999997</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>5.4012346543209864</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>7</v>
       </c>
@@ -810,13 +861,17 @@
         <v>100</v>
       </c>
       <c r="D17" s="3">
-        <v>55</v>
+        <v>15.277777899999998</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>4.2438272283950615</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>7</v>
       </c>
@@ -827,10 +882,14 @@
         <v>100</v>
       </c>
       <c r="D18" s="3">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+        <v>15.277777899999998</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>4.2438272283950615</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>7</v>
       </c>
@@ -841,10 +900,14 @@
         <v>100</v>
       </c>
       <c r="D19" s="3">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+        <v>15.277777899999998</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>4.2438272283950615</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>8</v>
       </c>
@@ -855,13 +918,17 @@
         <v>50</v>
       </c>
       <c r="D20" s="3">
-        <v>70</v>
+        <v>19.444444599999997</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>5.4012346543209864</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>8</v>
       </c>
@@ -872,13 +939,17 @@
         <v>50</v>
       </c>
       <c r="D21" s="3">
-        <v>70</v>
+        <v>19.444444599999997</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>5.4012346543209864</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>8</v>
       </c>
@@ -889,13 +960,17 @@
         <v>50</v>
       </c>
       <c r="D22" s="3">
-        <v>70</v>
+        <v>19.444444599999997</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>5.4012346543209864</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>8</v>
       </c>
@@ -906,13 +981,17 @@
         <v>50</v>
       </c>
       <c r="D23" s="3">
-        <v>70</v>
+        <v>19.444444599999997</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>5.4012346543209864</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>8</v>
       </c>
@@ -923,13 +1002,17 @@
         <v>50</v>
       </c>
       <c r="D24" s="3">
-        <v>70</v>
+        <v>19.444444599999997</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>5.4012346543209864</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>8</v>
       </c>
@@ -940,13 +1023,17 @@
         <v>60</v>
       </c>
       <c r="D25" s="3">
-        <v>70</v>
+        <v>19.444444599999997</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>5.4012346543209864</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>8</v>
       </c>
@@ -957,13 +1044,17 @@
         <v>60</v>
       </c>
       <c r="D26" s="3">
-        <v>70</v>
+        <v>19.444444599999997</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>5.4012346543209864</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>8</v>
       </c>
@@ -974,13 +1065,17 @@
         <v>50</v>
       </c>
       <c r="D27" s="3">
-        <v>70</v>
+        <v>19.444444599999997</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>5.4012346543209864</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>8</v>
       </c>
@@ -991,13 +1086,17 @@
         <v>50</v>
       </c>
       <c r="D28" s="3">
-        <v>70</v>
+        <v>19.444444599999997</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>5.4012346543209864</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>8</v>
       </c>
@@ -1008,13 +1107,17 @@
         <v>50</v>
       </c>
       <c r="D29" s="3">
-        <v>70</v>
+        <v>19.444444599999997</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>5.4012346543209864</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>8</v>
       </c>
@@ -1025,13 +1128,17 @@
         <v>50</v>
       </c>
       <c r="D30" s="3">
-        <v>70</v>
+        <v>19.444444599999997</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>5.4012346543209864</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>8</v>
       </c>
@@ -1042,13 +1149,17 @@
         <v>50</v>
       </c>
       <c r="D31" s="3">
-        <v>70</v>
+        <v>19.444444599999997</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>5.4012346543209864</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>8</v>
       </c>
@@ -1059,13 +1170,17 @@
         <v>50</v>
       </c>
       <c r="D32" s="3">
-        <v>70</v>
+        <v>19.444444599999997</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>5.4012346543209864</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>8</v>
       </c>
@@ -1076,13 +1191,17 @@
         <v>50</v>
       </c>
       <c r="D33" s="3">
-        <v>70</v>
+        <v>19.444444599999997</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>5.4012346543209864</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>8</v>
       </c>
@@ -1093,13 +1212,17 @@
         <v>50</v>
       </c>
       <c r="D34" s="3">
-        <v>70</v>
+        <v>19.444444599999997</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="0"/>
+        <v>5.4012346543209864</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>8</v>
       </c>
@@ -1110,13 +1233,17 @@
         <v>50</v>
       </c>
       <c r="D35" s="3">
-        <v>70</v>
+        <v>19.444444599999997</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="0"/>
+        <v>5.4012346543209864</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>8</v>
       </c>
@@ -1127,13 +1254,17 @@
         <v>60</v>
       </c>
       <c r="D36" s="3">
-        <v>70</v>
+        <v>19.444444599999997</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="0"/>
+        <v>5.4012346543209864</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>8</v>
       </c>
@@ -1144,13 +1275,17 @@
         <v>60</v>
       </c>
       <c r="D37" s="3">
-        <v>70</v>
+        <v>19.444444599999997</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="0"/>
+        <v>5.4012346543209864</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>8</v>
       </c>
@@ -1161,13 +1296,17 @@
         <v>50</v>
       </c>
       <c r="D38" s="3">
-        <v>70</v>
+        <v>19.444444599999997</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="0"/>
+        <v>5.4012346543209864</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>8</v>
       </c>
@@ -1178,13 +1317,17 @@
         <v>50</v>
       </c>
       <c r="D39" s="3">
-        <v>70</v>
+        <v>19.444444599999997</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="0"/>
+        <v>5.4012346543209864</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>8</v>
       </c>
@@ -1195,13 +1338,17 @@
         <v>50</v>
       </c>
       <c r="D40" s="3">
-        <v>70</v>
+        <v>19.444444599999997</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="0"/>
+        <v>5.4012346543209864</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>8</v>
       </c>
@@ -1212,13 +1359,17 @@
         <v>50</v>
       </c>
       <c r="D41" s="3">
-        <v>70</v>
+        <v>19.444444599999997</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="0"/>
+        <v>5.4012346543209864</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>9</v>
       </c>
@@ -1229,13 +1380,17 @@
         <v>75</v>
       </c>
       <c r="D42" s="3">
-        <v>70</v>
+        <v>19.444444599999997</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="0"/>
+        <v>5.4012346543209864</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>9</v>
       </c>
@@ -1246,13 +1401,15 @@
         <v>75</v>
       </c>
       <c r="D43" s="3">
-        <v>70</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+        <v>19.444444599999997</v>
+      </c>
+      <c r="E43" s="5"/>
+      <c r="H43">
+        <f t="shared" si="0"/>
+        <v>5.4012346543209864</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>9</v>
       </c>
@@ -1263,13 +1420,17 @@
         <v>75</v>
       </c>
       <c r="D44" s="3">
-        <v>70</v>
+        <v>19.444444599999997</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="0"/>
+        <v>5.4012346543209864</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>10</v>
       </c>
@@ -1280,10 +1441,14 @@
         <v>50</v>
       </c>
       <c r="D45" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+        <v>16.666666799999998</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="0"/>
+        <v>4.6296297037037029</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>10</v>
       </c>
@@ -1294,10 +1459,14 @@
         <v>50</v>
       </c>
       <c r="D46" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+        <v>16.666666799999998</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="0"/>
+        <v>4.6296297037037029</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>10</v>
       </c>
@@ -1308,10 +1477,14 @@
         <v>50</v>
       </c>
       <c r="D47" s="3">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+        <v>15.277777899999998</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="0"/>
+        <v>4.2438272283950615</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>10</v>
       </c>
@@ -1322,13 +1495,17 @@
         <v>43.2</v>
       </c>
       <c r="D48" s="3">
-        <v>55</v>
+        <v>15.277777899999998</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="0"/>
+        <v>4.2438272283950615</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>10</v>
       </c>
@@ -1339,10 +1516,14 @@
         <v>50</v>
       </c>
       <c r="D49" s="3">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+        <v>15.277777899999998</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="0"/>
+        <v>4.2438272283950615</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>10</v>
       </c>
@@ -1353,10 +1534,14 @@
         <v>50</v>
       </c>
       <c r="D50" s="3">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+        <v>15.277777899999998</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="0"/>
+        <v>4.2438272283950615</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>11</v>
       </c>
@@ -1367,10 +1552,14 @@
         <v>75</v>
       </c>
       <c r="D51" s="3">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+        <v>15.277777899999998</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="0"/>
+        <v>4.2438272283950615</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>11</v>
       </c>
@@ -1381,10 +1570,14 @@
         <v>75</v>
       </c>
       <c r="D52" s="3">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+        <v>15.277777899999998</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="0"/>
+        <v>4.2438272283950615</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>11</v>
       </c>
@@ -1395,10 +1588,14 @@
         <v>75</v>
       </c>
       <c r="D53" s="3">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+        <v>15.277777899999998</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="0"/>
+        <v>4.2438272283950615</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>12</v>
       </c>
@@ -1409,10 +1606,14 @@
         <v>75</v>
       </c>
       <c r="D54" s="3">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+        <v>15.277777899999998</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="0"/>
+        <v>4.2438272283950615</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>12</v>
       </c>
@@ -1423,10 +1624,14 @@
         <v>75</v>
       </c>
       <c r="D55" s="3">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+        <v>15.277777899999998</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="0"/>
+        <v>4.2438272283950615</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>12</v>
       </c>
@@ -1437,13 +1642,17 @@
         <v>75</v>
       </c>
       <c r="D56" s="3">
-        <v>55</v>
+        <v>15.277777899999998</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="0"/>
+        <v>4.2438272283950615</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>13</v>
       </c>
@@ -1454,10 +1663,14 @@
         <v>75</v>
       </c>
       <c r="D57" s="3">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+        <v>15.277777899999998</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="0"/>
+        <v>4.2438272283950615</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
         <v>13</v>
       </c>
@@ -1468,10 +1681,14 @@
         <v>75</v>
       </c>
       <c r="D58" s="3">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+        <v>15.277777899999998</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="0"/>
+        <v>4.2438272283950615</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>13</v>
       </c>
@@ -1482,10 +1699,14 @@
         <v>75</v>
       </c>
       <c r="D59" s="3">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+        <v>15.277777899999998</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="0"/>
+        <v>4.2438272283950615</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
         <v>14</v>
       </c>
@@ -1496,10 +1717,14 @@
         <v>75</v>
       </c>
       <c r="D60" s="3">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+        <v>15.277777899999998</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="0"/>
+        <v>4.2438272283950615</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
         <v>14</v>
       </c>
@@ -1510,10 +1735,14 @@
         <v>75</v>
       </c>
       <c r="D61" s="3">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+        <v>15.277777899999998</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="0"/>
+        <v>4.2438272283950615</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
         <v>14</v>
       </c>
@@ -1524,10 +1753,14 @@
         <v>75</v>
       </c>
       <c r="D62" s="3">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+        <v>15.277777899999998</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="0"/>
+        <v>4.2438272283950615</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
         <v>10</v>
       </c>
@@ -1538,13 +1771,17 @@
         <v>43.2</v>
       </c>
       <c r="D63" s="3">
-        <v>55</v>
+        <v>15.277777899999998</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="0"/>
+        <v>4.2438272283950615</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
         <v>10</v>
       </c>
@@ -1555,10 +1792,14 @@
         <v>50</v>
       </c>
       <c r="D64" s="3">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+        <v>15.277777899999998</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="0"/>
+        <v>4.2438272283950615</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
         <v>10</v>
       </c>
@@ -1569,10 +1810,14 @@
         <v>50</v>
       </c>
       <c r="D65" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+        <v>16.666666799999998</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="0"/>
+        <v>4.6296297037037029</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
         <v>10</v>
       </c>
@@ -1583,10 +1828,14 @@
         <v>50</v>
       </c>
       <c r="D66" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+        <v>16.666666799999998</v>
+      </c>
+      <c r="H66">
+        <f t="shared" ref="H66:H104" si="1">D66*0.27777778</f>
+        <v>4.6296297037037029</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
         <v>9</v>
       </c>
@@ -1597,13 +1846,17 @@
         <v>75</v>
       </c>
       <c r="D67" s="3">
-        <v>70</v>
+        <v>19.444444599999997</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="1"/>
+        <v>5.4012346543209864</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
         <v>9</v>
       </c>
@@ -1614,13 +1867,15 @@
         <v>75</v>
       </c>
       <c r="D68" s="3">
-        <v>70</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+        <v>19.444444599999997</v>
+      </c>
+      <c r="E68" s="5"/>
+      <c r="H68">
+        <f t="shared" si="1"/>
+        <v>5.4012346543209864</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>9</v>
       </c>
@@ -1631,13 +1886,17 @@
         <v>75</v>
       </c>
       <c r="D69" s="3">
-        <v>70</v>
+        <v>19.444444599999997</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="1"/>
+        <v>5.4012346543209864</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
         <v>15</v>
       </c>
@@ -1648,13 +1907,17 @@
         <v>50</v>
       </c>
       <c r="D70" s="3">
-        <v>55</v>
+        <v>15.277777899999998</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="1"/>
+        <v>4.2438272283950615</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
         <v>16</v>
       </c>
@@ -1665,13 +1928,17 @@
         <v>50</v>
       </c>
       <c r="D71" s="3">
-        <v>55</v>
+        <v>15.277777899999998</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="1"/>
+        <v>4.2438272283950615</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
         <v>16</v>
       </c>
@@ -1682,13 +1949,17 @@
         <v>50</v>
       </c>
       <c r="D72" s="3">
-        <v>55</v>
+        <v>15.277777899999998</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="1"/>
+        <v>4.2438272283950615</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
         <v>16</v>
       </c>
@@ -1699,13 +1970,17 @@
         <v>50</v>
       </c>
       <c r="D73" s="3">
-        <v>55</v>
+        <v>15.277777899999998</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="1"/>
+        <v>4.2438272283950615</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
         <v>17</v>
       </c>
@@ -1716,13 +1991,17 @@
         <v>50</v>
       </c>
       <c r="D74" s="3">
-        <v>55</v>
+        <v>15.277777899999998</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="1"/>
+        <v>4.2438272283950615</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
         <v>8</v>
       </c>
@@ -1733,13 +2012,17 @@
         <v>50</v>
       </c>
       <c r="D75" s="3">
-        <v>70</v>
+        <v>19.444444599999997</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="1"/>
+        <v>5.4012346543209864</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
         <v>8</v>
       </c>
@@ -1750,13 +2033,17 @@
         <v>50</v>
       </c>
       <c r="D76" s="3">
-        <v>70</v>
+        <v>19.444444599999997</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="1"/>
+        <v>5.4012346543209864</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
         <v>8</v>
       </c>
@@ -1767,13 +2054,17 @@
         <v>50</v>
       </c>
       <c r="D77" s="3">
-        <v>70</v>
+        <v>19.444444599999997</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="1"/>
+        <v>5.4012346543209864</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
         <v>8</v>
       </c>
@@ -1784,13 +2075,17 @@
         <v>50</v>
       </c>
       <c r="D78" s="3">
-        <v>70</v>
+        <v>19.444444599999997</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="1"/>
+        <v>5.4012346543209864</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
         <v>8</v>
       </c>
@@ -1801,13 +2096,17 @@
         <v>50</v>
       </c>
       <c r="D79" s="3">
-        <v>70</v>
+        <v>19.444444599999997</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="1"/>
+        <v>5.4012346543209864</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
         <v>8</v>
       </c>
@@ -1818,13 +2117,17 @@
         <v>50</v>
       </c>
       <c r="D80" s="3">
-        <v>70</v>
+        <v>19.444444599999997</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="1"/>
+        <v>5.4012346543209864</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
         <v>8</v>
       </c>
@@ -1835,13 +2138,17 @@
         <v>50</v>
       </c>
       <c r="D81" s="3">
-        <v>70</v>
+        <v>19.444444599999997</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="1"/>
+        <v>5.4012346543209864</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
         <v>18</v>
       </c>
@@ -1852,13 +2159,17 @@
         <v>50</v>
       </c>
       <c r="D82" s="3">
-        <v>55</v>
+        <v>15.277777899999998</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="1"/>
+        <v>4.2438272283950615</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
         <v>19</v>
       </c>
@@ -1869,13 +2180,17 @@
         <v>50</v>
       </c>
       <c r="D83" s="3">
-        <v>55</v>
+        <v>15.277777899999998</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="1"/>
+        <v>4.2438272283950615</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
         <v>19</v>
       </c>
@@ -1886,13 +2201,17 @@
         <v>50</v>
       </c>
       <c r="D84" s="3">
-        <v>55</v>
+        <v>15.277777899999998</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="1"/>
+        <v>4.2438272283950615</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
         <v>19</v>
       </c>
@@ -1903,13 +2222,17 @@
         <v>50</v>
       </c>
       <c r="D85" s="3">
-        <v>55</v>
+        <v>15.277777899999998</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="1"/>
+        <v>4.2438272283950615</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
         <v>20</v>
       </c>
@@ -1920,13 +2243,17 @@
         <v>50</v>
       </c>
       <c r="D86" s="3">
-        <v>55</v>
+        <v>15.277777899999998</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="1"/>
+        <v>4.2438272283950615</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
         <v>7</v>
       </c>
@@ -1937,10 +2264,14 @@
         <v>100</v>
       </c>
       <c r="D87" s="3">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+        <v>15.277777899999998</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="1"/>
+        <v>4.2438272283950615</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
         <v>7</v>
       </c>
@@ -1951,10 +2282,14 @@
         <v>100</v>
       </c>
       <c r="D88" s="3">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+        <v>15.277777899999998</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="1"/>
+        <v>4.2438272283950615</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
         <v>7</v>
       </c>
@@ -1965,13 +2300,17 @@
         <v>100</v>
       </c>
       <c r="D89" s="3">
-        <v>55</v>
+        <v>15.277777899999998</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="1"/>
+        <v>4.2438272283950615</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
         <v>6</v>
       </c>
@@ -1982,10 +2321,14 @@
         <v>200</v>
       </c>
       <c r="D90" s="3">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+        <v>19.444444599999997</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="1"/>
+        <v>5.4012346543209864</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
         <v>6</v>
       </c>
@@ -1996,10 +2339,14 @@
         <v>400</v>
       </c>
       <c r="D91" s="3">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+        <v>19.444444599999997</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="1"/>
+        <v>5.4012346543209864</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
         <v>6</v>
       </c>
@@ -2010,10 +2357,14 @@
         <v>400</v>
       </c>
       <c r="D92" s="3">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+        <v>19.444444599999997</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="1"/>
+        <v>5.4012346543209864</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
         <v>6</v>
       </c>
@@ -2024,10 +2375,14 @@
         <v>200</v>
       </c>
       <c r="D93" s="3">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+        <v>15.277777899999998</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="1"/>
+        <v>4.2438272283950615</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
         <v>6</v>
       </c>
@@ -2038,13 +2393,17 @@
         <v>50</v>
       </c>
       <c r="D94" s="3">
-        <v>40</v>
+        <v>11.1111112</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="1"/>
+        <v>3.0864198024691358</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
         <v>3</v>
       </c>
@@ -2055,10 +2414,14 @@
         <v>50</v>
       </c>
       <c r="D95" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+        <v>11.1111112</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="1"/>
+        <v>3.0864198024691358</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
         <v>3</v>
       </c>
@@ -2069,10 +2432,14 @@
         <v>50</v>
       </c>
       <c r="D96" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+        <v>11.1111112</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="1"/>
+        <v>3.0864198024691358</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
         <v>3</v>
       </c>
@@ -2083,10 +2450,14 @@
         <v>50</v>
       </c>
       <c r="D97" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+        <v>11.1111112</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="1"/>
+        <v>3.0864198024691358</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
         <v>4</v>
       </c>
@@ -2097,10 +2468,14 @@
         <v>50</v>
       </c>
       <c r="D98" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+        <v>11.1111112</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="1"/>
+        <v>3.0864198024691358</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
         <v>4</v>
       </c>
@@ -2111,10 +2486,14 @@
         <v>50</v>
       </c>
       <c r="D99" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+        <v>11.1111112</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="1"/>
+        <v>3.0864198024691358</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
         <v>4</v>
       </c>
@@ -2125,10 +2504,14 @@
         <v>50</v>
       </c>
       <c r="D100" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+        <v>11.1111112</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="1"/>
+        <v>3.0864198024691358</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
         <v>5</v>
       </c>
@@ -2139,13 +2522,17 @@
         <v>75</v>
       </c>
       <c r="D101" s="3">
-        <v>40</v>
+        <v>11.1111112</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="1"/>
+        <v>3.0864198024691358</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
         <v>5</v>
       </c>
@@ -2156,10 +2543,14 @@
         <v>75</v>
       </c>
       <c r="D102" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+        <v>11.1111112</v>
+      </c>
+      <c r="H102">
+        <f t="shared" si="1"/>
+        <v>3.0864198024691358</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
         <v>5</v>
       </c>
@@ -2170,13 +2561,17 @@
         <v>75</v>
       </c>
       <c r="D103" s="3">
-        <v>40</v>
+        <v>11.1111112</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+      <c r="H103">
+        <f t="shared" si="1"/>
+        <v>3.0864198024691358</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
         <v>20</v>
       </c>
@@ -2187,56 +2582,58 @@
         <v>50</v>
       </c>
       <c r="D104" s="3">
-        <v>40</v>
-      </c>
-      <c r="E104" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+        <v>11.1111112</v>
+      </c>
+      <c r="E104" s="5"/>
+      <c r="H104">
+        <f t="shared" si="1"/>
+        <v>3.0864198024691358</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" s="3"/>
       <c r="B106" s="4"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="5"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" s="3"/>
       <c r="B108" s="4"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" s="3"/>
       <c r="B111" s="4"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>

--- a/modules/Red Line Info.xlsx
+++ b/modules/Red Line Info.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/52e6f4f7f86bcef2/Desktop/School/1140/1140/modules/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\School\1140\1140_iteration4\1140\modules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{BE1843E8-BAEF-4C94-81BE-558F42D416FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE2E7295-C8E5-43CD-A2BE-76D687FD730A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11DE5017-B82C-468C-9D1F-0E9F08FEBA6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11390" yWindow="2360" windowWidth="28800" windowHeight="15460" xr2:uid="{74BABC91-B30C-4EA1-9E18-CB507E7797A1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{74BABC91-B30C-4EA1-9E18-CB507E7797A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="36">
   <si>
     <t>Section</t>
   </si>
@@ -226,10 +226,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -531,21 +527,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4104CD2-E043-4597-AF7D-F6AD80AEEABB}">
   <dimension ref="A1:H223"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D104"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.08984375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="3.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="3.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -566,7 +562,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>20</v>
       </c>
@@ -586,7 +582,7 @@
         <v>3.0864198024691358</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -608,7 +604,7 @@
         <v>3.0864198024691358</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -627,7 +623,7 @@
         <v>3.0864198024691358</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -648,7 +644,7 @@
         <v>3.0864198024691358</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -666,7 +662,7 @@
         <v>3.0864198024691358</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -685,7 +681,7 @@
         <v>3.0864198024691358</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
@@ -703,7 +699,7 @@
         <v>3.0864198024691358</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -721,7 +717,7 @@
         <v>3.0864198024691358</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>3</v>
       </c>
@@ -739,7 +735,7 @@
         <v>3.0864198024691358</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
@@ -757,7 +753,7 @@
         <v>3.0864198024691358</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
@@ -778,7 +774,7 @@
         <v>3.0864198024691358</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
@@ -796,7 +792,7 @@
         <v>4.2438272283950615</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
@@ -814,7 +810,7 @@
         <v>5.4012346543209864</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
@@ -832,7 +828,7 @@
         <v>5.4012346543209864</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
@@ -850,7 +846,7 @@
         <v>5.4012346543209864</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>7</v>
       </c>
@@ -871,7 +867,7 @@
         <v>4.2438272283950615</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>7</v>
       </c>
@@ -889,7 +885,7 @@
         <v>4.2438272283950615</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>7</v>
       </c>
@@ -907,7 +903,7 @@
         <v>4.2438272283950615</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>8</v>
       </c>
@@ -928,7 +924,7 @@
         <v>5.4012346543209864</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>8</v>
       </c>
@@ -949,7 +945,7 @@
         <v>5.4012346543209864</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>8</v>
       </c>
@@ -970,7 +966,7 @@
         <v>5.4012346543209864</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>8</v>
       </c>
@@ -991,7 +987,7 @@
         <v>5.4012346543209864</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>8</v>
       </c>
@@ -1012,7 +1008,7 @@
         <v>5.4012346543209864</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>8</v>
       </c>
@@ -1033,7 +1029,7 @@
         <v>5.4012346543209864</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>8</v>
       </c>
@@ -1054,7 +1050,7 @@
         <v>5.4012346543209864</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>8</v>
       </c>
@@ -1075,7 +1071,7 @@
         <v>5.4012346543209864</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>8</v>
       </c>
@@ -1096,7 +1092,7 @@
         <v>5.4012346543209864</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>8</v>
       </c>
@@ -1117,7 +1113,7 @@
         <v>5.4012346543209864</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>8</v>
       </c>
@@ -1138,7 +1134,7 @@
         <v>5.4012346543209864</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>8</v>
       </c>
@@ -1159,7 +1155,7 @@
         <v>5.4012346543209864</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>8</v>
       </c>
@@ -1180,7 +1176,7 @@
         <v>5.4012346543209864</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>8</v>
       </c>
@@ -1201,7 +1197,7 @@
         <v>5.4012346543209864</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>8</v>
       </c>
@@ -1222,7 +1218,7 @@
         <v>5.4012346543209864</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>8</v>
       </c>
@@ -1243,7 +1239,7 @@
         <v>5.4012346543209864</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>8</v>
       </c>
@@ -1264,7 +1260,7 @@
         <v>5.4012346543209864</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>8</v>
       </c>
@@ -1285,7 +1281,7 @@
         <v>5.4012346543209864</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>8</v>
       </c>
@@ -1306,7 +1302,7 @@
         <v>5.4012346543209864</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>8</v>
       </c>
@@ -1327,7 +1323,7 @@
         <v>5.4012346543209864</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>8</v>
       </c>
@@ -1348,7 +1344,7 @@
         <v>5.4012346543209864</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>8</v>
       </c>
@@ -1369,7 +1365,7 @@
         <v>5.4012346543209864</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>9</v>
       </c>
@@ -1390,7 +1386,7 @@
         <v>5.4012346543209864</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>9</v>
       </c>
@@ -1409,7 +1405,7 @@
         <v>5.4012346543209864</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>9</v>
       </c>
@@ -1430,7 +1426,7 @@
         <v>5.4012346543209864</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>10</v>
       </c>
@@ -1448,7 +1444,7 @@
         <v>4.6296297037037029</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>10</v>
       </c>
@@ -1466,7 +1462,7 @@
         <v>4.6296297037037029</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>10</v>
       </c>
@@ -1484,7 +1480,7 @@
         <v>4.2438272283950615</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>10</v>
       </c>
@@ -1505,7 +1501,7 @@
         <v>4.2438272283950615</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>10</v>
       </c>
@@ -1523,7 +1519,7 @@
         <v>4.2438272283950615</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>10</v>
       </c>
@@ -1541,7 +1537,7 @@
         <v>4.2438272283950615</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>11</v>
       </c>
@@ -1559,7 +1555,7 @@
         <v>4.2438272283950615</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>11</v>
       </c>
@@ -1577,7 +1573,7 @@
         <v>4.2438272283950615</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>11</v>
       </c>
@@ -1595,7 +1591,7 @@
         <v>4.2438272283950615</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>12</v>
       </c>
@@ -1613,7 +1609,7 @@
         <v>4.2438272283950615</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>12</v>
       </c>
@@ -1631,7 +1627,7 @@
         <v>4.2438272283950615</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>12</v>
       </c>
@@ -1652,7 +1648,7 @@
         <v>4.2438272283950615</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>13</v>
       </c>
@@ -1670,7 +1666,7 @@
         <v>4.2438272283950615</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>13</v>
       </c>
@@ -1688,7 +1684,7 @@
         <v>4.2438272283950615</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>13</v>
       </c>
@@ -1706,7 +1702,7 @@
         <v>4.2438272283950615</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>14</v>
       </c>
@@ -1724,7 +1720,7 @@
         <v>4.2438272283950615</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>14</v>
       </c>
@@ -1742,7 +1738,7 @@
         <v>4.2438272283950615</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>14</v>
       </c>
@@ -1760,7 +1756,7 @@
         <v>4.2438272283950615</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>10</v>
       </c>
@@ -1781,7 +1777,7 @@
         <v>4.2438272283950615</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>10</v>
       </c>
@@ -1799,7 +1795,7 @@
         <v>4.2438272283950615</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>10</v>
       </c>
@@ -1817,7 +1813,7 @@
         <v>4.6296297037037029</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>10</v>
       </c>
@@ -1835,7 +1831,7 @@
         <v>4.6296297037037029</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>9</v>
       </c>
@@ -1848,15 +1844,13 @@
       <c r="D67" s="3">
         <v>19.444444599999997</v>
       </c>
-      <c r="E67" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="E67" s="5"/>
       <c r="H67">
         <f t="shared" si="1"/>
         <v>5.4012346543209864</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>9</v>
       </c>
@@ -1875,7 +1869,7 @@
         <v>5.4012346543209864</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>9</v>
       </c>
@@ -1896,7 +1890,7 @@
         <v>5.4012346543209864</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>15</v>
       </c>
@@ -1917,7 +1911,7 @@
         <v>4.2438272283950615</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>16</v>
       </c>
@@ -1938,7 +1932,7 @@
         <v>4.2438272283950615</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>16</v>
       </c>
@@ -1959,7 +1953,7 @@
         <v>4.2438272283950615</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>16</v>
       </c>
@@ -1980,7 +1974,7 @@
         <v>4.2438272283950615</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>17</v>
       </c>
@@ -2001,7 +1995,7 @@
         <v>4.2438272283950615</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>8</v>
       </c>
@@ -2022,7 +2016,7 @@
         <v>5.4012346543209864</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>8</v>
       </c>
@@ -2043,7 +2037,7 @@
         <v>5.4012346543209864</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>8</v>
       </c>
@@ -2064,7 +2058,7 @@
         <v>5.4012346543209864</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>8</v>
       </c>
@@ -2078,14 +2072,14 @@
         <v>19.444444599999997</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="H78">
         <f t="shared" si="1"/>
         <v>5.4012346543209864</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>8</v>
       </c>
@@ -2106,7 +2100,7 @@
         <v>5.4012346543209864</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>8</v>
       </c>
@@ -2127,7 +2121,7 @@
         <v>5.4012346543209864</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>8</v>
       </c>
@@ -2148,7 +2142,7 @@
         <v>5.4012346543209864</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>18</v>
       </c>
@@ -2169,7 +2163,7 @@
         <v>4.2438272283950615</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>19</v>
       </c>
@@ -2190,7 +2184,7 @@
         <v>4.2438272283950615</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>19</v>
       </c>
@@ -2211,7 +2205,7 @@
         <v>4.2438272283950615</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>19</v>
       </c>
@@ -2232,7 +2226,7 @@
         <v>4.2438272283950615</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>20</v>
       </c>
@@ -2253,7 +2247,7 @@
         <v>4.2438272283950615</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>7</v>
       </c>
@@ -2271,7 +2265,7 @@
         <v>4.2438272283950615</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>7</v>
       </c>
@@ -2289,7 +2283,7 @@
         <v>4.2438272283950615</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>7</v>
       </c>
@@ -2302,15 +2296,13 @@
       <c r="D89" s="3">
         <v>15.277777899999998</v>
       </c>
-      <c r="E89" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="E89" s="5"/>
       <c r="H89">
         <f t="shared" si="1"/>
         <v>4.2438272283950615</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>6</v>
       </c>
@@ -2328,7 +2320,7 @@
         <v>5.4012346543209864</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>6</v>
       </c>
@@ -2346,7 +2338,7 @@
         <v>5.4012346543209864</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>6</v>
       </c>
@@ -2364,7 +2356,7 @@
         <v>5.4012346543209864</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>6</v>
       </c>
@@ -2382,7 +2374,7 @@
         <v>4.2438272283950615</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>6</v>
       </c>
@@ -2395,15 +2387,13 @@
       <c r="D94" s="3">
         <v>11.1111112</v>
       </c>
-      <c r="E94" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="E94" s="5"/>
       <c r="H94">
         <f t="shared" si="1"/>
         <v>3.0864198024691358</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>3</v>
       </c>
@@ -2421,7 +2411,7 @@
         <v>3.0864198024691358</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>3</v>
       </c>
@@ -2439,7 +2429,7 @@
         <v>3.0864198024691358</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>3</v>
       </c>
@@ -2457,7 +2447,7 @@
         <v>3.0864198024691358</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
         <v>4</v>
       </c>
@@ -2475,7 +2465,7 @@
         <v>3.0864198024691358</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
         <v>4</v>
       </c>
@@ -2493,7 +2483,7 @@
         <v>3.0864198024691358</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
         <v>4</v>
       </c>
@@ -2511,7 +2501,7 @@
         <v>3.0864198024691358</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
         <v>5</v>
       </c>
@@ -2524,15 +2514,13 @@
       <c r="D101" s="3">
         <v>11.1111112</v>
       </c>
-      <c r="E101" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="E101" s="5"/>
       <c r="H101">
         <f t="shared" si="1"/>
         <v>3.0864198024691358</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
         <v>5</v>
       </c>
@@ -2550,7 +2538,7 @@
         <v>3.0864198024691358</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
         <v>5</v>
       </c>
@@ -2571,7 +2559,7 @@
         <v>3.0864198024691358</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
         <v>20</v>
       </c>
@@ -2590,545 +2578,545 @@
         <v>3.0864198024691358</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="3"/>
       <c r="B106" s="4"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="5"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="3"/>
       <c r="B108" s="4"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="3"/>
       <c r="B111" s="4"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="5"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="3"/>
       <c r="B113" s="4"/>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="3"/>
       <c r="B116" s="4"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="3"/>
       <c r="B118" s="4"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="5"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="3"/>
       <c r="B121" s="4"/>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="3"/>
       <c r="B124" s="4"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="5"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="3"/>
       <c r="B127" s="4"/>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="3"/>
       <c r="B130" s="4"/>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="5"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="3"/>
       <c r="B132" s="4"/>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="3"/>
       <c r="B135" s="4"/>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="3"/>
       <c r="B137" s="4"/>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="3"/>
       <c r="B140" s="4"/>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="3"/>
       <c r="B142" s="4"/>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="3"/>
       <c r="B145" s="4"/>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="5"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="3"/>
       <c r="B147" s="4"/>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="3"/>
       <c r="B150" s="4"/>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="3"/>
       <c r="B153" s="4"/>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="5"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="3"/>
       <c r="B156" s="4"/>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="3"/>
       <c r="B159" s="4"/>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="3"/>
       <c r="B162" s="4"/>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
       <c r="E163" s="5"/>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="3"/>
       <c r="B165" s="4"/>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="3"/>
       <c r="B168" s="4"/>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="3"/>
       <c r="B171" s="4"/>
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
       <c r="E172" s="5"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="3"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
       <c r="E174" s="5"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="3"/>
       <c r="B175" s="4"/>
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
     </row>
-    <row r="193" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="193" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D193" s="3"/>
     </row>
-    <row r="194" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="194" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D194" s="3"/>
     </row>
-    <row r="195" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="195" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D195" s="3"/>
     </row>
-    <row r="196" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="196" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D196" s="3"/>
     </row>
-    <row r="197" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="197" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D197" s="3"/>
     </row>
-    <row r="198" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="198" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D198" s="3"/>
     </row>
-    <row r="199" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="199" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D199" s="3"/>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="3"/>
       <c r="B212" s="4"/>
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
       <c r="E212" s="5"/>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
       <c r="E214" s="5"/>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="3"/>
       <c r="B215" s="4"/>
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="3"/>
       <c r="B217" s="4"/>
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="3"/>
       <c r="B218" s="4"/>
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="3"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="3"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="3"/>
       <c r="B221" s="4"/>
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="3"/>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
       <c r="E222" s="5"/>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="3"/>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>

--- a/modules/Red Line Info.xlsx
+++ b/modules/Red Line Info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\School\1140\1140_iteration4\1140\modules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11DE5017-B82C-468C-9D1F-0E9F08FEBA6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101ED2EA-AE77-4466-A39B-D178983DBD02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{74BABC91-B30C-4EA1-9E18-CB507E7797A1}"/>
+    <workbookView xWindow="4212" yWindow="612" windowWidth="17280" windowHeight="8964" xr2:uid="{74BABC91-B30C-4EA1-9E18-CB507E7797A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -107,15 +107,6 @@
     <t>UNDERGROUND</t>
   </si>
   <si>
-    <t>STATION: SHADYSIDE</t>
-  </si>
-  <si>
-    <t>STATION: HERRON AVE</t>
-  </si>
-  <si>
-    <t>STATION: SWISSVILLE</t>
-  </si>
-  <si>
     <t>STATION; PENN STATION; UNDERGROUND</t>
   </si>
   <si>
@@ -144,6 +135,15 @@
   </si>
   <si>
     <t>Speed Limit (m/s)</t>
+  </si>
+  <si>
+    <t>STATION; HERRON AVE</t>
+  </si>
+  <si>
+    <t>STATION; SHADYSIDE</t>
+  </si>
+  <si>
+    <t>STATION; SWISSVILLE</t>
   </si>
 </sst>
 </file>
@@ -527,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4104CD2-E043-4597-AF7D-F6AD80AEEABB}">
   <dimension ref="A1:H223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -552,7 +552,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>21</v>
@@ -596,7 +596,7 @@
         <v>11.1111112</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F3" s="3"/>
       <c r="H3">
@@ -637,7 +637,7 @@
         <v>11.1111112</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
@@ -767,7 +767,7 @@
         <v>11.1111112</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
@@ -860,7 +860,7 @@
         <v>15.277777899999998</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
@@ -938,7 +938,7 @@
         <v>19.444444599999997</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H21">
         <f t="shared" si="0"/>
@@ -980,7 +980,7 @@
         <v>19.444444599999997</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H23">
         <f t="shared" si="0"/>
@@ -1085,7 +1085,7 @@
         <v>19.444444599999997</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H28">
         <f t="shared" si="0"/>
@@ -1148,7 +1148,7 @@
         <v>19.444444599999997</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H31">
         <f t="shared" si="0"/>
@@ -1211,7 +1211,7 @@
         <v>19.444444599999997</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H34">
         <f t="shared" si="0"/>
@@ -1316,7 +1316,7 @@
         <v>19.444444599999997</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H39">
         <f t="shared" si="0"/>
@@ -1358,7 +1358,7 @@
         <v>19.444444599999997</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H41">
         <f t="shared" si="0"/>
@@ -1419,7 +1419,7 @@
         <v>19.444444599999997</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H44">
         <f t="shared" si="0"/>
@@ -1494,7 +1494,7 @@
         <v>15.277777899999998</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H48">
         <f t="shared" si="0"/>
@@ -1641,7 +1641,7 @@
         <v>15.277777899999998</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H56">
         <f t="shared" si="0"/>
@@ -1770,7 +1770,7 @@
         <v>15.277777899999998</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H63">
         <f t="shared" si="0"/>
@@ -2009,7 +2009,7 @@
         <v>19.444444599999997</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H75">
         <f t="shared" si="1"/>
@@ -2135,7 +2135,7 @@
         <v>19.444444599999997</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H81">
         <f t="shared" si="1"/>
@@ -2552,7 +2552,7 @@
         <v>11.1111112</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H103">
         <f t="shared" si="1"/>

--- a/modules/Red Line Info.xlsx
+++ b/modules/Red Line Info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\School\1140\1140_iteration4\1140\modules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101ED2EA-AE77-4466-A39B-D178983DBD02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C438A3D-E464-4AB5-9F26-3804D9EF78F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4212" yWindow="612" windowWidth="17280" windowHeight="8964" xr2:uid="{74BABC91-B30C-4EA1-9E18-CB507E7797A1}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8964" xr2:uid="{74BABC91-B30C-4EA1-9E18-CB507E7797A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -525,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4104CD2-E043-4597-AF7D-F6AD80AEEABB}">
-  <dimension ref="A1:H223"/>
+  <dimension ref="A1:F223"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="H102" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -541,7 +541,7 @@
     <col min="6" max="6" width="3.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -557,12 +557,8 @@
       <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="e">
-        <f>D1*0.27777778</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>20</v>
       </c>
@@ -577,12 +573,8 @@
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="3"/>
-      <c r="H2">
-        <f t="shared" ref="H2:H65" si="0">D2*0.27777778</f>
-        <v>3.0864198024691358</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -599,12 +591,8 @@
         <v>27</v>
       </c>
       <c r="F3" s="3"/>
-      <c r="H3">
-        <f t="shared" si="0"/>
-        <v>3.0864198024691358</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -618,12 +606,8 @@
         <v>11.1111112</v>
       </c>
       <c r="F4" s="3"/>
-      <c r="H4">
-        <f t="shared" si="0"/>
-        <v>3.0864198024691358</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -639,12 +623,8 @@
       <c r="E5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H5">
-        <f t="shared" si="0"/>
-        <v>3.0864198024691358</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -657,12 +637,8 @@
       <c r="D6" s="3">
         <v>11.1111112</v>
       </c>
-      <c r="H6">
-        <f t="shared" si="0"/>
-        <v>3.0864198024691358</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -676,12 +652,8 @@
         <v>11.1111112</v>
       </c>
       <c r="E7" s="5"/>
-      <c r="H7">
-        <f t="shared" si="0"/>
-        <v>3.0864198024691358</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
@@ -694,12 +666,8 @@
       <c r="D8" s="3">
         <v>11.1111112</v>
       </c>
-      <c r="H8">
-        <f t="shared" si="0"/>
-        <v>3.0864198024691358</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -712,12 +680,8 @@
       <c r="D9" s="3">
         <v>11.1111112</v>
       </c>
-      <c r="H9">
-        <f t="shared" si="0"/>
-        <v>3.0864198024691358</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>3</v>
       </c>
@@ -730,12 +694,8 @@
       <c r="D10" s="3">
         <v>11.1111112</v>
       </c>
-      <c r="H10">
-        <f t="shared" si="0"/>
-        <v>3.0864198024691358</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
@@ -748,12 +708,8 @@
       <c r="D11" s="3">
         <v>11.1111112</v>
       </c>
-      <c r="H11">
-        <f t="shared" si="0"/>
-        <v>3.0864198024691358</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
@@ -769,12 +725,8 @@
       <c r="E12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H12">
-        <f t="shared" si="0"/>
-        <v>3.0864198024691358</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
@@ -787,12 +739,8 @@
       <c r="D13" s="3">
         <v>15.277777899999998</v>
       </c>
-      <c r="H13">
-        <f t="shared" si="0"/>
-        <v>4.2438272283950615</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
@@ -805,12 +753,8 @@
       <c r="D14" s="3">
         <v>19.444444599999997</v>
       </c>
-      <c r="H14">
-        <f t="shared" si="0"/>
-        <v>5.4012346543209864</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
@@ -823,12 +767,8 @@
       <c r="D15" s="3">
         <v>19.444444599999997</v>
       </c>
-      <c r="H15">
-        <f t="shared" si="0"/>
-        <v>5.4012346543209864</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
@@ -841,12 +781,8 @@
       <c r="D16" s="3">
         <v>19.444444599999997</v>
       </c>
-      <c r="H16">
-        <f t="shared" si="0"/>
-        <v>5.4012346543209864</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>7</v>
       </c>
@@ -862,12 +798,8 @@
       <c r="E17" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H17">
-        <f t="shared" si="0"/>
-        <v>4.2438272283950615</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>7</v>
       </c>
@@ -880,12 +812,8 @@
       <c r="D18" s="3">
         <v>15.277777899999998</v>
       </c>
-      <c r="H18">
-        <f t="shared" si="0"/>
-        <v>4.2438272283950615</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>7</v>
       </c>
@@ -898,12 +826,8 @@
       <c r="D19" s="3">
         <v>15.277777899999998</v>
       </c>
-      <c r="H19">
-        <f t="shared" si="0"/>
-        <v>4.2438272283950615</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>8</v>
       </c>
@@ -919,12 +843,8 @@
       <c r="E20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H20">
-        <f t="shared" si="0"/>
-        <v>5.4012346543209864</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>8</v>
       </c>
@@ -940,12 +860,8 @@
       <c r="E21" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H21">
-        <f t="shared" si="0"/>
-        <v>5.4012346543209864</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>8</v>
       </c>
@@ -961,12 +877,8 @@
       <c r="E22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H22">
-        <f t="shared" si="0"/>
-        <v>5.4012346543209864</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>8</v>
       </c>
@@ -982,12 +894,8 @@
       <c r="E23" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H23">
-        <f t="shared" si="0"/>
-        <v>5.4012346543209864</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>8</v>
       </c>
@@ -1003,12 +911,8 @@
       <c r="E24" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H24">
-        <f t="shared" si="0"/>
-        <v>5.4012346543209864</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>8</v>
       </c>
@@ -1024,12 +928,8 @@
       <c r="E25" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H25">
-        <f t="shared" si="0"/>
-        <v>5.4012346543209864</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>8</v>
       </c>
@@ -1045,12 +945,8 @@
       <c r="E26" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H26">
-        <f t="shared" si="0"/>
-        <v>5.4012346543209864</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>8</v>
       </c>
@@ -1066,12 +962,8 @@
       <c r="E27" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H27">
-        <f t="shared" si="0"/>
-        <v>5.4012346543209864</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>8</v>
       </c>
@@ -1087,12 +979,8 @@
       <c r="E28" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H28">
-        <f t="shared" si="0"/>
-        <v>5.4012346543209864</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>8</v>
       </c>
@@ -1108,12 +996,8 @@
       <c r="E29" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H29">
-        <f t="shared" si="0"/>
-        <v>5.4012346543209864</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>8</v>
       </c>
@@ -1129,12 +1013,8 @@
       <c r="E30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H30">
-        <f t="shared" si="0"/>
-        <v>5.4012346543209864</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>8</v>
       </c>
@@ -1150,12 +1030,8 @@
       <c r="E31" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H31">
-        <f t="shared" si="0"/>
-        <v>5.4012346543209864</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>8</v>
       </c>
@@ -1171,12 +1047,8 @@
       <c r="E32" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H32">
-        <f t="shared" si="0"/>
-        <v>5.4012346543209864</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>8</v>
       </c>
@@ -1192,12 +1064,8 @@
       <c r="E33" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H33">
-        <f t="shared" si="0"/>
-        <v>5.4012346543209864</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>8</v>
       </c>
@@ -1213,12 +1081,8 @@
       <c r="E34" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H34">
-        <f t="shared" si="0"/>
-        <v>5.4012346543209864</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>8</v>
       </c>
@@ -1234,12 +1098,8 @@
       <c r="E35" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H35">
-        <f t="shared" si="0"/>
-        <v>5.4012346543209864</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>8</v>
       </c>
@@ -1255,12 +1115,8 @@
       <c r="E36" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H36">
-        <f t="shared" si="0"/>
-        <v>5.4012346543209864</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>8</v>
       </c>
@@ -1276,12 +1132,8 @@
       <c r="E37" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H37">
-        <f t="shared" si="0"/>
-        <v>5.4012346543209864</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>8</v>
       </c>
@@ -1297,12 +1149,8 @@
       <c r="E38" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H38">
-        <f t="shared" si="0"/>
-        <v>5.4012346543209864</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>8</v>
       </c>
@@ -1318,12 +1166,8 @@
       <c r="E39" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H39">
-        <f t="shared" si="0"/>
-        <v>5.4012346543209864</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>8</v>
       </c>
@@ -1339,12 +1183,8 @@
       <c r="E40" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H40">
-        <f t="shared" si="0"/>
-        <v>5.4012346543209864</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>8</v>
       </c>
@@ -1360,12 +1200,8 @@
       <c r="E41" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H41">
-        <f t="shared" si="0"/>
-        <v>5.4012346543209864</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>9</v>
       </c>
@@ -1381,12 +1217,8 @@
       <c r="E42" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H42">
-        <f t="shared" si="0"/>
-        <v>5.4012346543209864</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>9</v>
       </c>
@@ -1400,12 +1232,8 @@
         <v>19.444444599999997</v>
       </c>
       <c r="E43" s="5"/>
-      <c r="H43">
-        <f t="shared" si="0"/>
-        <v>5.4012346543209864</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>9</v>
       </c>
@@ -1421,12 +1249,8 @@
       <c r="E44" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H44">
-        <f t="shared" si="0"/>
-        <v>5.4012346543209864</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>10</v>
       </c>
@@ -1439,12 +1263,8 @@
       <c r="D45" s="3">
         <v>16.666666799999998</v>
       </c>
-      <c r="H45">
-        <f t="shared" si="0"/>
-        <v>4.6296297037037029</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>10</v>
       </c>
@@ -1457,12 +1277,8 @@
       <c r="D46" s="3">
         <v>16.666666799999998</v>
       </c>
-      <c r="H46">
-        <f t="shared" si="0"/>
-        <v>4.6296297037037029</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>10</v>
       </c>
@@ -1475,12 +1291,8 @@
       <c r="D47" s="3">
         <v>15.277777899999998</v>
       </c>
-      <c r="H47">
-        <f t="shared" si="0"/>
-        <v>4.2438272283950615</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>10</v>
       </c>
@@ -1496,12 +1308,8 @@
       <c r="E48" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H48">
-        <f t="shared" si="0"/>
-        <v>4.2438272283950615</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>10</v>
       </c>
@@ -1514,12 +1322,8 @@
       <c r="D49" s="3">
         <v>15.277777899999998</v>
       </c>
-      <c r="H49">
-        <f t="shared" si="0"/>
-        <v>4.2438272283950615</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>10</v>
       </c>
@@ -1532,12 +1336,8 @@
       <c r="D50" s="3">
         <v>15.277777899999998</v>
       </c>
-      <c r="H50">
-        <f t="shared" si="0"/>
-        <v>4.2438272283950615</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>11</v>
       </c>
@@ -1550,12 +1350,8 @@
       <c r="D51" s="3">
         <v>15.277777899999998</v>
       </c>
-      <c r="H51">
-        <f t="shared" si="0"/>
-        <v>4.2438272283950615</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>11</v>
       </c>
@@ -1568,12 +1364,8 @@
       <c r="D52" s="3">
         <v>15.277777899999998</v>
       </c>
-      <c r="H52">
-        <f t="shared" si="0"/>
-        <v>4.2438272283950615</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>11</v>
       </c>
@@ -1586,12 +1378,8 @@
       <c r="D53" s="3">
         <v>15.277777899999998</v>
       </c>
-      <c r="H53">
-        <f t="shared" si="0"/>
-        <v>4.2438272283950615</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>12</v>
       </c>
@@ -1604,12 +1392,8 @@
       <c r="D54" s="3">
         <v>15.277777899999998</v>
       </c>
-      <c r="H54">
-        <f t="shared" si="0"/>
-        <v>4.2438272283950615</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>12</v>
       </c>
@@ -1622,12 +1406,8 @@
       <c r="D55" s="3">
         <v>15.277777899999998</v>
       </c>
-      <c r="H55">
-        <f t="shared" si="0"/>
-        <v>4.2438272283950615</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>12</v>
       </c>
@@ -1643,12 +1423,8 @@
       <c r="E56" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H56">
-        <f t="shared" si="0"/>
-        <v>4.2438272283950615</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>13</v>
       </c>
@@ -1661,12 +1437,8 @@
       <c r="D57" s="3">
         <v>15.277777899999998</v>
       </c>
-      <c r="H57">
-        <f t="shared" si="0"/>
-        <v>4.2438272283950615</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>13</v>
       </c>
@@ -1679,12 +1451,8 @@
       <c r="D58" s="3">
         <v>15.277777899999998</v>
       </c>
-      <c r="H58">
-        <f t="shared" si="0"/>
-        <v>4.2438272283950615</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>13</v>
       </c>
@@ -1697,12 +1465,8 @@
       <c r="D59" s="3">
         <v>15.277777899999998</v>
       </c>
-      <c r="H59">
-        <f t="shared" si="0"/>
-        <v>4.2438272283950615</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>14</v>
       </c>
@@ -1715,12 +1479,8 @@
       <c r="D60" s="3">
         <v>15.277777899999998</v>
       </c>
-      <c r="H60">
-        <f t="shared" si="0"/>
-        <v>4.2438272283950615</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>14</v>
       </c>
@@ -1733,12 +1493,8 @@
       <c r="D61" s="3">
         <v>15.277777899999998</v>
       </c>
-      <c r="H61">
-        <f t="shared" si="0"/>
-        <v>4.2438272283950615</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>14</v>
       </c>
@@ -1751,12 +1507,8 @@
       <c r="D62" s="3">
         <v>15.277777899999998</v>
       </c>
-      <c r="H62">
-        <f t="shared" si="0"/>
-        <v>4.2438272283950615</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>10</v>
       </c>
@@ -1772,12 +1524,8 @@
       <c r="E63" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H63">
-        <f t="shared" si="0"/>
-        <v>4.2438272283950615</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>10</v>
       </c>
@@ -1790,12 +1538,8 @@
       <c r="D64" s="3">
         <v>15.277777899999998</v>
       </c>
-      <c r="H64">
-        <f t="shared" si="0"/>
-        <v>4.2438272283950615</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>10</v>
       </c>
@@ -1808,12 +1552,8 @@
       <c r="D65" s="3">
         <v>16.666666799999998</v>
       </c>
-      <c r="H65">
-        <f t="shared" si="0"/>
-        <v>4.6296297037037029</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>10</v>
       </c>
@@ -1826,12 +1566,8 @@
       <c r="D66" s="3">
         <v>16.666666799999998</v>
       </c>
-      <c r="H66">
-        <f t="shared" ref="H66:H104" si="1">D66*0.27777778</f>
-        <v>4.6296297037037029</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>9</v>
       </c>
@@ -1845,12 +1581,8 @@
         <v>19.444444599999997</v>
       </c>
       <c r="E67" s="5"/>
-      <c r="H67">
-        <f t="shared" si="1"/>
-        <v>5.4012346543209864</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>9</v>
       </c>
@@ -1864,12 +1596,8 @@
         <v>19.444444599999997</v>
       </c>
       <c r="E68" s="5"/>
-      <c r="H68">
-        <f t="shared" si="1"/>
-        <v>5.4012346543209864</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>9</v>
       </c>
@@ -1885,12 +1613,8 @@
       <c r="E69" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H69">
-        <f t="shared" si="1"/>
-        <v>5.4012346543209864</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>15</v>
       </c>
@@ -1906,12 +1630,8 @@
       <c r="E70" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H70">
-        <f t="shared" si="1"/>
-        <v>4.2438272283950615</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>16</v>
       </c>
@@ -1927,12 +1647,8 @@
       <c r="E71" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H71">
-        <f t="shared" si="1"/>
-        <v>4.2438272283950615</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>16</v>
       </c>
@@ -1948,12 +1664,8 @@
       <c r="E72" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H72">
-        <f t="shared" si="1"/>
-        <v>4.2438272283950615</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>16</v>
       </c>
@@ -1969,12 +1681,8 @@
       <c r="E73" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H73">
-        <f t="shared" si="1"/>
-        <v>4.2438272283950615</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>17</v>
       </c>
@@ -1990,12 +1698,8 @@
       <c r="E74" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H74">
-        <f t="shared" si="1"/>
-        <v>4.2438272283950615</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>8</v>
       </c>
@@ -2011,12 +1715,8 @@
       <c r="E75" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H75">
-        <f t="shared" si="1"/>
-        <v>5.4012346543209864</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>8</v>
       </c>
@@ -2032,12 +1732,8 @@
       <c r="E76" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H76">
-        <f t="shared" si="1"/>
-        <v>5.4012346543209864</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>8</v>
       </c>
@@ -2053,12 +1749,8 @@
       <c r="E77" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H77">
-        <f t="shared" si="1"/>
-        <v>5.4012346543209864</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>8</v>
       </c>
@@ -2074,12 +1766,8 @@
       <c r="E78" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H78">
-        <f t="shared" si="1"/>
-        <v>5.4012346543209864</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>8</v>
       </c>
@@ -2095,12 +1783,8 @@
       <c r="E79" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H79">
-        <f t="shared" si="1"/>
-        <v>5.4012346543209864</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>8</v>
       </c>
@@ -2116,12 +1800,8 @@
       <c r="E80" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H80">
-        <f t="shared" si="1"/>
-        <v>5.4012346543209864</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>8</v>
       </c>
@@ -2137,12 +1817,8 @@
       <c r="E81" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H81">
-        <f t="shared" si="1"/>
-        <v>5.4012346543209864</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>18</v>
       </c>
@@ -2158,12 +1834,8 @@
       <c r="E82" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H82">
-        <f t="shared" si="1"/>
-        <v>4.2438272283950615</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>19</v>
       </c>
@@ -2179,12 +1851,8 @@
       <c r="E83" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H83">
-        <f t="shared" si="1"/>
-        <v>4.2438272283950615</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>19</v>
       </c>
@@ -2200,12 +1868,8 @@
       <c r="E84" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H84">
-        <f t="shared" si="1"/>
-        <v>4.2438272283950615</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>19</v>
       </c>
@@ -2221,12 +1885,8 @@
       <c r="E85" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H85">
-        <f t="shared" si="1"/>
-        <v>4.2438272283950615</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>20</v>
       </c>
@@ -2242,12 +1902,8 @@
       <c r="E86" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H86">
-        <f t="shared" si="1"/>
-        <v>4.2438272283950615</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>7</v>
       </c>
@@ -2260,12 +1916,8 @@
       <c r="D87" s="3">
         <v>15.277777899999998</v>
       </c>
-      <c r="H87">
-        <f t="shared" si="1"/>
-        <v>4.2438272283950615</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>7</v>
       </c>
@@ -2278,12 +1930,8 @@
       <c r="D88" s="3">
         <v>15.277777899999998</v>
       </c>
-      <c r="H88">
-        <f t="shared" si="1"/>
-        <v>4.2438272283950615</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>7</v>
       </c>
@@ -2297,12 +1945,8 @@
         <v>15.277777899999998</v>
       </c>
       <c r="E89" s="5"/>
-      <c r="H89">
-        <f t="shared" si="1"/>
-        <v>4.2438272283950615</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>6</v>
       </c>
@@ -2315,12 +1959,8 @@
       <c r="D90" s="3">
         <v>19.444444599999997</v>
       </c>
-      <c r="H90">
-        <f t="shared" si="1"/>
-        <v>5.4012346543209864</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>6</v>
       </c>
@@ -2333,12 +1973,8 @@
       <c r="D91" s="3">
         <v>19.444444599999997</v>
       </c>
-      <c r="H91">
-        <f t="shared" si="1"/>
-        <v>5.4012346543209864</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>6</v>
       </c>
@@ -2351,12 +1987,8 @@
       <c r="D92" s="3">
         <v>19.444444599999997</v>
       </c>
-      <c r="H92">
-        <f t="shared" si="1"/>
-        <v>5.4012346543209864</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>6</v>
       </c>
@@ -2369,12 +2001,8 @@
       <c r="D93" s="3">
         <v>15.277777899999998</v>
       </c>
-      <c r="H93">
-        <f t="shared" si="1"/>
-        <v>4.2438272283950615</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>6</v>
       </c>
@@ -2388,12 +2016,8 @@
         <v>11.1111112</v>
       </c>
       <c r="E94" s="5"/>
-      <c r="H94">
-        <f t="shared" si="1"/>
-        <v>3.0864198024691358</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>3</v>
       </c>
@@ -2406,12 +2030,8 @@
       <c r="D95" s="3">
         <v>11.1111112</v>
       </c>
-      <c r="H95">
-        <f t="shared" si="1"/>
-        <v>3.0864198024691358</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>3</v>
       </c>
@@ -2424,12 +2044,8 @@
       <c r="D96" s="3">
         <v>11.1111112</v>
       </c>
-      <c r="H96">
-        <f t="shared" si="1"/>
-        <v>3.0864198024691358</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>3</v>
       </c>
@@ -2442,12 +2058,8 @@
       <c r="D97" s="3">
         <v>11.1111112</v>
       </c>
-      <c r="H97">
-        <f t="shared" si="1"/>
-        <v>3.0864198024691358</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
         <v>4</v>
       </c>
@@ -2460,12 +2072,8 @@
       <c r="D98" s="3">
         <v>11.1111112</v>
       </c>
-      <c r="H98">
-        <f t="shared" si="1"/>
-        <v>3.0864198024691358</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
         <v>4</v>
       </c>
@@ -2478,12 +2086,8 @@
       <c r="D99" s="3">
         <v>11.1111112</v>
       </c>
-      <c r="H99">
-        <f t="shared" si="1"/>
-        <v>3.0864198024691358</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
         <v>4</v>
       </c>
@@ -2496,12 +2100,8 @@
       <c r="D100" s="3">
         <v>11.1111112</v>
       </c>
-      <c r="H100">
-        <f t="shared" si="1"/>
-        <v>3.0864198024691358</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
         <v>5</v>
       </c>
@@ -2515,12 +2115,8 @@
         <v>11.1111112</v>
       </c>
       <c r="E101" s="5"/>
-      <c r="H101">
-        <f t="shared" si="1"/>
-        <v>3.0864198024691358</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
         <v>5</v>
       </c>
@@ -2533,12 +2129,8 @@
       <c r="D102" s="3">
         <v>11.1111112</v>
       </c>
-      <c r="H102">
-        <f t="shared" si="1"/>
-        <v>3.0864198024691358</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
         <v>5</v>
       </c>
@@ -2554,12 +2146,8 @@
       <c r="E103" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H103">
-        <f t="shared" si="1"/>
-        <v>3.0864198024691358</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
         <v>20</v>
       </c>
@@ -2573,55 +2161,51 @@
         <v>11.1111112</v>
       </c>
       <c r="E104" s="5"/>
-      <c r="H104">
-        <f t="shared" si="1"/>
-        <v>3.0864198024691358</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="3"/>
       <c r="B106" s="4"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="5"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="3"/>
       <c r="B108" s="4"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="3"/>
       <c r="B111" s="4"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
